--- a/pantry_shop_crm/upFormats/material_types.xlsx
+++ b/pantry_shop_crm/upFormats/material_types.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28305"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aristo\Desktop\CRM1\Food_Pantry_CRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aristo\Desktop\Pantry_Gui\pantry_shop_crm\upFormats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E5DD38-60BD-4720-B8E4-287208AF80B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D1E72F-96FC-41C9-96D2-3871A8CC94D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{765ADB97-6DE7-42E4-8244-639B2FC0D8B1}"/>
   </bookViews>
@@ -36,147 +36,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
-  <si>
-    <t>PC001</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>B001</t>
-  </si>
-  <si>
-    <t>PC002</t>
-  </si>
-  <si>
-    <t>Flour</t>
-  </si>
-  <si>
-    <t>B002</t>
-  </si>
-  <si>
-    <t>PC003</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>B003</t>
-  </si>
-  <si>
-    <t>PC004</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>B004</t>
-  </si>
-  <si>
-    <t>PC005</t>
-  </si>
-  <si>
-    <t>Cooking Oil</t>
-  </si>
-  <si>
-    <t>B005</t>
-  </si>
-  <si>
-    <t>PC006</t>
-  </si>
-  <si>
-    <t>Lentils</t>
-  </si>
-  <si>
-    <t>B006</t>
-  </si>
-  <si>
-    <t>PC007</t>
-  </si>
-  <si>
-    <t>Pasta</t>
-  </si>
-  <si>
-    <t>B007</t>
-  </si>
-  <si>
-    <t>PC008</t>
-  </si>
-  <si>
-    <t>Tea Bags</t>
-  </si>
-  <si>
-    <t>B008</t>
-  </si>
-  <si>
-    <t>PC009</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>B009</t>
-  </si>
-  <si>
-    <t>PC010</t>
-  </si>
-  <si>
-    <t>Canned Beans</t>
-  </si>
-  <si>
-    <t>B010</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>litre</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>packet</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>Product Code</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Batch</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Buying Price per Unit</t>
-  </si>
-  <si>
-    <t>Selling Price per Unit</t>
-  </si>
-  <si>
-    <t>Measurement Unit</t>
-  </si>
-  <si>
-    <t>Expire Date</t>
-  </si>
-  <si>
-    <t>Vendor Number</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>material_type</t>
+  </si>
+  <si>
+    <t>material_desc</t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>Drinks like coffee and tea</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Packaged snacks and chips</t>
+  </si>
+  <si>
+    <t>Dairy Products</t>
+  </si>
+  <si>
+    <t>Milk, cheese, yogurt</t>
+  </si>
+  <si>
+    <t>Canned Goods</t>
+  </si>
+  <si>
+    <t>Canned fruits and vegetables</t>
+  </si>
+  <si>
+    <t>Baking Supplies</t>
+  </si>
+  <si>
+    <t>Flour, sugar, and baking soda</t>
+  </si>
+  <si>
+    <t>Grains and Pasta</t>
+  </si>
+  <si>
+    <t>Rice, pasta, and noodles</t>
+  </si>
+  <si>
+    <t>Frozen Foods</t>
+  </si>
+  <si>
+    <t>Frozen vegetables and meals</t>
+  </si>
+  <si>
+    <t>Condiments</t>
+  </si>
+  <si>
+    <t>Sauces, ketchup, and mayo</t>
+  </si>
+  <si>
+    <t>Fresh Produce</t>
+  </si>
+  <si>
+    <t>Fruits and vegetables</t>
+  </si>
+  <si>
+    <t>Spices and Herbs</t>
+  </si>
+  <si>
+    <t>Salt, pepper, and herbs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,15 +161,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,172 +499,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA65B8C-F48A-4CF0-BB50-91DEA886DD87}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45597</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>150</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45672</v>
-      </c>
-      <c r="I2" s="1">
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45597</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45598</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45598</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>200</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2">
-        <v>45708</v>
-      </c>
-      <c r="I3" s="1">
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>180</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2">
-        <v>45726</v>
-      </c>
-      <c r="I4" s="1">
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
-        <v>300</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2">
-        <v>45752</v>
-      </c>
-      <c r="I5" s="1">
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -737,168 +609,96 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1">
-        <v>120</v>
+      <c r="D6" s="2">
+        <v>45599</v>
       </c>
       <c r="E6" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2">
-        <v>45789</v>
-      </c>
-      <c r="I6" s="1">
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="2">
+        <v>45599</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1">
-        <v>220</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2">
-        <v>45826</v>
-      </c>
-      <c r="I7" s="1">
-        <v>100001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="2">
+        <v>45600</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1">
-        <v>150</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2">
-        <v>45861</v>
-      </c>
-      <c r="I8" s="1">
-        <v>100002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="D9" s="2">
+        <v>45600</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D10" s="2">
+        <v>45601</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1">
-        <v>250</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="2">
-        <v>45884</v>
-      </c>
-      <c r="I9" s="1">
-        <v>100002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1">
-        <v>200</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="2">
-        <v>45908</v>
-      </c>
-      <c r="I10" s="1">
-        <v>100002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1">
-        <v>180</v>
+      <c r="D11" s="2">
+        <v>45601</v>
       </c>
       <c r="E11" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="2">
-        <v>45931</v>
-      </c>
-      <c r="I11" s="1">
-        <v>100002</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
